--- a/results_final/ci_LL.xlsx
+++ b/results_final/ci_LL.xlsx
@@ -519,91 +519,91 @@
         <v>0.236257522822892</v>
       </c>
       <c r="D2">
-        <v>0.2353619261360337</v>
+        <v>0.2353718485121202</v>
       </c>
       <c r="E2">
-        <v>0.2344777391588706</v>
+        <v>0.2345071090128701</v>
       </c>
       <c r="F2">
-        <v>0.2336047868297565</v>
+        <v>0.2336627466964866</v>
       </c>
       <c r="G2">
-        <v>0.2327428973351121</v>
+        <v>0.2328382212960632</v>
       </c>
       <c r="H2">
-        <v>0.2318919020384122</v>
+        <v>0.2320330092685682</v>
       </c>
       <c r="I2">
-        <v>0.2310516354109469</v>
+        <v>0.2312466031841278</v>
       </c>
       <c r="J2">
-        <v>0.2302219349643078</v>
+        <v>0.2304785111411605</v>
       </c>
       <c r="K2">
-        <v>0.2294026411845498</v>
+        <v>0.2297282562061287</v>
       </c>
       <c r="L2">
-        <v>0.2285935974679836</v>
+        <v>0.2289953758767353</v>
       </c>
       <c r="M2">
-        <v>0.2277946500585531</v>
+        <v>0.2282794215674596</v>
       </c>
       <c r="N2">
-        <v>0.2270056479867535</v>
+        <v>0.2275799581163801</v>
       </c>
       <c r="O2">
-        <v>0.2262264430100482</v>
+        <v>0.2268965633122883</v>
       </c>
       <c r="P2">
-        <v>0.2254568895547442</v>
+        <v>0.226228827441151</v>
       </c>
       <c r="Q2">
-        <v>0.2246968446592839</v>
+        <v>0.2255763528510226</v>
       </c>
       <c r="R2">
-        <v>0.2239461679189175</v>
+        <v>0.2249387535345606</v>
       </c>
       <c r="S2">
-        <v>0.2232047214317159</v>
+        <v>0.2243156547283351</v>
       </c>
       <c r="T2">
-        <v>0.2224723697458895</v>
+        <v>0.2237066925281694</v>
       </c>
       <c r="U2">
-        <v>0.2217489798083766</v>
+        <v>0.2231115135197824</v>
       </c>
       <c r="V2">
-        <v>0.2210344209146678</v>
+        <v>0.2225297744240447</v>
       </c>
       <c r="W2">
-        <v>0.2203285646598325</v>
+        <v>0.2219611417561905</v>
       </c>
       <c r="X2">
-        <v>0.2196312848907158</v>
+        <v>0.2214052914983637</v>
       </c>
       <c r="Y2">
-        <v>0.2189424576592747</v>
+        <v>0.2208619087849057</v>
       </c>
       <c r="Z2">
-        <v>0.218261961177022</v>
+        <v>0.2203306875998202</v>
       </c>
       <c r="AA2">
-        <v>0.2175896757705505</v>
+        <v>0.2198113304858821</v>
       </c>
       <c r="AB2">
-        <v>0.2169254838381063</v>
+        <v>0.2193035482648784</v>
       </c>
       <c r="AC2">
-        <v>0.2162692698071857</v>
+        <v>0.2188070597684988</v>
       </c>
       <c r="AD2">
-        <v>0.2156209200931281</v>
+        <v>0.2183215915794135</v>
       </c>
       <c r="AE2">
-        <v>0.2149803230586771</v>
+        <v>0.2178468777820989</v>
       </c>
       <c r="AF2">
-        <v>0.2143473689744872</v>
+        <v>0.2173826597229948</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -614,94 +614,94 @@
         <v>0.2141411028578385</v>
       </c>
       <c r="C3">
-        <v>0.2093131140741208</v>
+        <v>0.2093131140741207</v>
       </c>
       <c r="D3">
-        <v>0.2046359704259797</v>
+        <v>0.2046873082830961</v>
       </c>
       <c r="E3">
-        <v>0.2001040330621199</v>
+        <v>0.200253216847966</v>
       </c>
       <c r="F3">
-        <v>0.1957119046929255</v>
+        <v>0.1960010129923681</v>
       </c>
       <c r="G3">
-        <v>0.1914544180415922</v>
+        <v>0.1919214668557888</v>
       </c>
       <c r="H3">
-        <v>0.187326624900802</v>
+        <v>0.1880059040570484</v>
       </c>
       <c r="I3">
-        <v>0.1833237857605519</v>
+        <v>0.1842461674656199</v>
       </c>
       <c r="J3">
-        <v>0.1794413599748408</v>
+        <v>0.1806345819083799</v>
       </c>
       <c r="K3">
-        <v>0.1756749964368803</v>
+        <v>0.177163921564457</v>
       </c>
       <c r="L3">
-        <v>0.1720205247343268</v>
+        <v>0.1738273798234378</v>
       </c>
       <c r="M3">
-        <v>0.1684739467577491</v>
+        <v>0.1706185414025641</v>
       </c>
       <c r="N3">
-        <v>0.1650314287371491</v>
+        <v>0.1675313565369452</v>
       </c>
       <c r="O3">
-        <v>0.1616892936828555</v>
+        <v>0.1645601170734233</v>
       </c>
       <c r="P3">
-        <v>0.1584440142085192</v>
+        <v>0.1616994343137473</v>
       </c>
       <c r="Q3">
-        <v>0.1552922057152559</v>
+        <v>0.1589442184662958</v>
       </c>
       <c r="R3">
-        <v>0.152230619917215</v>
+        <v>0.1562896595778903</v>
       </c>
       <c r="S3">
-        <v>0.1492561386900128</v>
+        <v>0.153731209828384</v>
       </c>
       <c r="T3">
-        <v>0.1463657682245524</v>
+        <v>0.1512645670808162</v>
       </c>
       <c r="U3">
-        <v>0.1435566334697688</v>
+        <v>0.1488856595890869</v>
       </c>
       <c r="V3">
-        <v>0.1408259728487927</v>
+        <v>0.146590631773434</v>
       </c>
       <c r="W3">
-        <v>0.1381711332339201</v>
+        <v>0.1443758309815547</v>
       </c>
       <c r="X3">
-        <v>0.1355895651666179</v>
+        <v>0.1422377951600912</v>
       </c>
       <c r="Y3">
-        <v>0.1330788183095787</v>
+        <v>0.1401732413674565</v>
       </c>
       <c r="Z3">
-        <v>0.1306365371185838</v>
+        <v>0.1381790550646713</v>
       </c>
       <c r="AA3">
-        <v>0.1282604567226248</v>
+        <v>0.1362522801260752</v>
       </c>
       <c r="AB3">
-        <v>0.1259483990013883</v>
+        <v>0.1343901095165035</v>
       </c>
       <c r="AC3">
-        <v>0.1236982688498221</v>
+        <v>0.1325898765858396</v>
       </c>
       <c r="AD3">
-        <v>0.1215080506200778</v>
+        <v>0.13084904693579</v>
       </c>
       <c r="AE3">
-        <v>0.1193758047316664</v>
+        <v>0.1291652108173315</v>
       </c>
       <c r="AF3">
-        <v>0.1172996644411733</v>
+        <v>0.1275360760205663</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -715,91 +715,91 @@
         <v>0.2083631273380663</v>
       </c>
       <c r="D4">
-        <v>0.2043945440559312</v>
+        <v>0.2044381773905846</v>
       </c>
       <c r="E4">
-        <v>0.2005362524603754</v>
+        <v>0.200663466784957</v>
       </c>
       <c r="F4">
-        <v>0.1967845410569335</v>
+        <v>0.1970318774192992</v>
       </c>
       <c r="G4">
-        <v>0.193135842757326</v>
+        <v>0.193536693167284</v>
       </c>
       <c r="H4">
-        <v>0.1895867285696284</v>
+        <v>0.1901715738038382</v>
       </c>
       <c r="I4">
-        <v>0.1861339015922516</v>
+        <v>0.1869305308239494</v>
       </c>
       <c r="J4">
-        <v>0.182774191295826</v>
+        <v>0.1838079050033858</v>
       </c>
       <c r="K4">
-        <v>0.1795045480779848</v>
+        <v>0.1807983455632521</v>
       </c>
       <c r="L4">
-        <v>0.1763220380768779</v>
+        <v>0.1778967908121949</v>
       </c>
       <c r="M4">
-        <v>0.1732238382300439</v>
+        <v>0.175098450150864</v>
       </c>
       <c r="N4">
-        <v>0.1702072315660098</v>
+        <v>0.1723987873330318</v>
       </c>
       <c r="O4">
-        <v>0.1672696027166894</v>
+        <v>0.1697935048866767</v>
       </c>
       <c r="P4">
-        <v>0.1644084336393089</v>
+        <v>0.1672785296064282</v>
       </c>
       <c r="Q4">
-        <v>0.16162129953721</v>
+        <v>0.1648499990361364</v>
       </c>
       <c r="R4">
-        <v>0.1589058649694623</v>
+        <v>0.1625042488670337</v>
       </c>
       <c r="S4">
-        <v>0.1562598801397667</v>
+        <v>0.160237801183063</v>
       </c>
       <c r="T4">
-        <v>0.1536811773556493</v>
+        <v>0.1580473534905177</v>
       </c>
       <c r="U4">
-        <v>0.1511676676494311</v>
+        <v>0.1559297684742167</v>
       </c>
       <c r="V4">
-        <v>0.1487173375529203</v>
+        <v>0.1538820644270753</v>
       </c>
       <c r="W4">
-        <v>0.146328246018203</v>
+        <v>0.1519014063041716</v>
       </c>
       <c r="X4">
-        <v>0.1439985214773184</v>
+        <v>0.1499850973562734</v>
       </c>
       <c r="Y4">
-        <v>0.1417263590339883</v>
+        <v>0.1481305713013379</v>
       </c>
       <c r="Z4">
-        <v>0.1395100177809329</v>
+        <v>0.1463353849957335</v>
       </c>
       <c r="AA4">
-        <v>0.1373478182366465</v>
+        <v>0.1445972115698981</v>
       </c>
       <c r="AB4">
-        <v>0.1352381398958299</v>
+        <v>0.1429138339958728</v>
       </c>
       <c r="AC4">
-        <v>0.1331794188879798</v>
+        <v>0.1412831390566351</v>
       </c>
       <c r="AD4">
-        <v>0.1311701457389239</v>
+        <v>0.1397031116894478</v>
       </c>
       <c r="AE4">
-        <v>0.1292088632303605</v>
+        <v>0.138171829677534</v>
       </c>
       <c r="AF4">
-        <v>0.1272941643527179</v>
+        <v>0.1366874586663191</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -813,91 +813,91 @@
         <v>0.2340017226395489</v>
       </c>
       <c r="D5">
-        <v>0.232729070776444</v>
+        <v>0.2327431590263002</v>
       </c>
       <c r="E5">
-        <v>0.231474701231073</v>
+        <v>0.2315163343073646</v>
       </c>
       <c r="F5">
-        <v>0.2302382909576091</v>
+        <v>0.2303203203738925</v>
       </c>
       <c r="G5">
-        <v>0.2290195238138384</v>
+        <v>0.229154221414034</v>
       </c>
       <c r="H5">
-        <v>0.2278180903888123</v>
+        <v>0.2280171725850294</v>
       </c>
       <c r="I5">
-        <v>0.226633687835379</v>
+        <v>0.2269083387481071</v>
       </c>
       <c r="J5">
-        <v>0.2254660197074413</v>
+        <v>0.2258269132628583</v>
       </c>
       <c r="K5">
-        <v>0.2243147958017928</v>
+        <v>0.2247721168379529</v>
       </c>
       <c r="L5">
-        <v>0.2231797320043875</v>
+        <v>0.2237431964352427</v>
       </c>
       <c r="M5">
-        <v>0.2220605501409074</v>
+        <v>0.2227394242244689</v>
       </c>
       <c r="N5">
-        <v>0.2209569778314923</v>
+        <v>0.2217600965859507</v>
       </c>
       <c r="O5">
-        <v>0.2198687483495027</v>
+        <v>0.2208045331587821</v>
       </c>
       <c r="P5">
-        <v>0.2187956004841936</v>
+        <v>0.219872075932203</v>
       </c>
       <c r="Q5">
-        <v>0.2177372784071761</v>
+        <v>0.2189620883779457</v>
       </c>
       <c r="R5">
-        <v>0.2166935315425519</v>
+        <v>0.2180739546214772</v>
       </c>
       <c r="S5">
-        <v>0.2156641144406078</v>
+        <v>0.217207078650179</v>
       </c>
       <c r="T5">
-        <v>0.2146487866549626</v>
+        <v>0.2163608835566098</v>
       </c>
       <c r="U5">
-        <v>0.2136473126230593</v>
+        <v>0.2155348108151041</v>
       </c>
       <c r="V5">
-        <v>0.2126594615499034</v>
+        <v>0.2147283195900515</v>
       </c>
       <c r="W5">
-        <v>0.2116850072949481</v>
+        <v>0.2139408860742957</v>
       </c>
       <c r="X5">
-        <v>0.210723728262031</v>
+        <v>0.2131720028561749</v>
       </c>
       <c r="Y5">
-        <v>0.2097754072922721</v>
+        <v>0.2124211783138056</v>
       </c>
       <c r="Z5">
-        <v>0.2088398315598429</v>
+        <v>0.2116879360352886</v>
       </c>
       <c r="AA5">
-        <v>0.2079167924705217</v>
+        <v>0.2109718142635857</v>
       </c>
       <c r="AB5">
-        <v>0.207006085562952</v>
+        <v>0.2102723653648823</v>
       </c>
       <c r="AC5">
-        <v>0.2061075104125237</v>
+        <v>0.209589155319314</v>
       </c>
       <c r="AD5">
-        <v>0.2052208705377991</v>
+        <v>0.2089217632329957</v>
       </c>
       <c r="AE5">
-        <v>0.2043459733094095</v>
+        <v>0.2082697808703457</v>
       </c>
       <c r="AF5">
-        <v>0.2034826298613485</v>
+        <v>0.207632812205751</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -911,91 +911,91 @@
         <v>0.254309962413845</v>
       </c>
       <c r="D6">
-        <v>0.2508348834719487</v>
+        <v>0.2508731946691332</v>
       </c>
       <c r="E6">
-        <v>0.2474379290716286</v>
+        <v>0.2475502270873165</v>
       </c>
       <c r="F6">
-        <v>0.244116933492433</v>
+        <v>0.2443364257226464</v>
       </c>
       <c r="G6">
-        <v>0.2408698015635414</v>
+        <v>0.241227383480891</v>
       </c>
       <c r="H6">
-        <v>0.2376945060527133</v>
+        <v>0.2382189072354528</v>
       </c>
       <c r="I6">
-        <v>0.2345890851626464</v>
+        <v>0.2353070057684811</v>
       </c>
       <c r="J6">
-        <v>0.231551640129907</v>
+        <v>0.2324878784785564</v>
       </c>
       <c r="K6">
-        <v>0.2285803329218321</v>
+        <v>0.2297579048010363</v>
       </c>
       <c r="L6">
-        <v>0.2256733840270237</v>
+        <v>0.2271136342912912</v>
       </c>
       <c r="M6">
-        <v>0.222829070335272</v>
+        <v>0.2245517773248535</v>
       </c>
       <c r="N6">
-        <v>0.220045723102939</v>
+        <v>0.2220691963719841</v>
       </c>
       <c r="O6">
-        <v>0.217321726000031</v>
+        <v>0.2196628978073599</v>
       </c>
       <c r="P6">
-        <v>0.2146555132353637</v>
+        <v>0.2173300242185198</v>
       </c>
       <c r="Q6">
-        <v>0.2120455677563979</v>
+        <v>0.215067847179409</v>
       </c>
       <c r="R6">
-        <v>0.2094904195204852</v>
+        <v>0.212873760457844</v>
       </c>
       <c r="S6">
-        <v>0.2069886438344188</v>
+        <v>0.2107452736280034</v>
       </c>
       <c r="T6">
-        <v>0.2045388597593278</v>
+        <v>0.2086800060611574</v>
       </c>
       <c r="U6">
-        <v>0.2021397285780972</v>
+        <v>0.2066756812697824</v>
       </c>
       <c r="V6">
-        <v>0.1997899523226219</v>
+        <v>0.2047301215819975</v>
       </c>
       <c r="W6">
-        <v>0.1974882723583344</v>
+        <v>0.2028412431249024</v>
       </c>
       <c r="X6">
-        <v>0.1952334680235607</v>
+        <v>0.2010070510969225</v>
       </c>
       <c r="Y6">
-        <v>0.1930243553213725</v>
+        <v>0.1992256353106626</v>
       </c>
       <c r="Z6">
-        <v>0.1908597856617151</v>
+        <v>0.1974951659890725</v>
       </c>
       <c r="AA6">
-        <v>0.1887386446516861</v>
+        <v>0.1958138897989231</v>
       </c>
       <c r="AB6">
-        <v>0.1866598509319438</v>
+        <v>0.1941801261066976</v>
       </c>
       <c r="AC6">
-        <v>0.1846223550573115</v>
+        <v>0.1925922634430299</v>
       </c>
       <c r="AD6">
-        <v>0.1826251384197345</v>
+        <v>0.191048756162766</v>
       </c>
       <c r="AE6">
-        <v>0.1806672122118297</v>
+        <v>0.1895481212886062</v>
       </c>
       <c r="AF6">
-        <v>0.1787476164293448</v>
+        <v>0.1880889355270944</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1009,91 +1009,91 @@
         <v>0.2827013628419978</v>
       </c>
       <c r="D7">
-        <v>0.2358045617244451</v>
+        <v>0.236279805530917</v>
       </c>
       <c r="E7">
-        <v>0.1970087357326853</v>
+        <v>0.1981907281669828</v>
       </c>
       <c r="F7">
-        <v>0.1648623044247401</v>
+        <v>0.1668272255641171</v>
       </c>
       <c r="G7">
-        <v>0.1381826525650081</v>
+        <v>0.1409116334840651</v>
       </c>
       <c r="H7">
-        <v>0.1160047292690335</v>
+        <v>0.1194244288805657</v>
       </c>
       <c r="I7">
-        <v>0.09753975603737733</v>
+        <v>0.1015492149264183</v>
       </c>
       <c r="J7">
-        <v>0.08214200161850739</v>
+        <v>0.08662999702469434</v>
       </c>
       <c r="K7">
-        <v>0.06928200464523601</v>
+        <v>0.07413788530620669</v>
       </c>
       <c r="L7">
-        <v>0.05852495827183909</v>
+        <v>0.06364505277032262</v>
       </c>
       <c r="M7">
-        <v>0.04951323406067484</v>
+        <v>0.0548042979233858</v>
       </c>
       <c r="N7">
-        <v>0.04195223027729329</v>
+        <v>0.04733295156364307</v>
       </c>
       <c r="O7">
-        <v>0.03559889436415985</v>
+        <v>0.04100016228577166</v>
       </c>
       <c r="P7">
-        <v>0.0302523999008187</v>
+        <v>0.03561681863975922</v>
       </c>
       <c r="Q7">
-        <v>0.02574656203954957</v>
+        <v>0.03102753563153755</v>
       </c>
       <c r="R7">
-        <v>0.02194365788503755</v>
+        <v>0.02710426270456861</v>
       </c>
       <c r="S7">
-        <v>0.0187293840019971</v>
+        <v>0.02374116939229276</v>
       </c>
       <c r="T7">
-        <v>0.01600873567421786</v>
+        <v>0.02085054087097847</v>
       </c>
       <c r="U7">
-        <v>0.01370263444819696</v>
+        <v>0.01835947420650482</v>
       </c>
       <c r="V7">
-        <v>0.01174516403961216</v>
+        <v>0.01620721133724828</v>
       </c>
       <c r="W7">
-        <v>0.01008130157124086</v>
+        <v>0.01434297990566228</v>
       </c>
       <c r="X7">
-        <v>0.008665052698885076</v>
+        <v>0.01272424031665438</v>
       </c>
       <c r="Y7">
-        <v>0.007457916538620745</v>
+        <v>0.01131525866272349</v>
       </c>
       <c r="Z7">
-        <v>0.006427620284027319</v>
+        <v>0.0100859417853922</v>
       </c>
       <c r="AA7">
-        <v>0.005547074671102331</v>
+        <v>0.009010883787096127</v>
       </c>
       <c r="AB7">
-        <v>0.004793510548496035</v>
+        <v>0.008068583569676963</v>
       </c>
       <c r="AC7">
-        <v>0.004147764169543484</v>
+        <v>0.007240801071420311</v>
       </c>
       <c r="AD7">
-        <v>0.003593684781885447</v>
+        <v>0.00651202627922613</v>
       </c>
       <c r="AE7">
-        <v>0.003117642923207162</v>
+        <v>0.005869040173141507</v>
       </c>
       <c r="AF7">
-        <v>0.002708121756221926</v>
+        <v>0.005300550801679914</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1107,91 +1107,91 @@
         <v>0.3848931328742282</v>
       </c>
       <c r="D8">
-        <v>0.3354907310523361</v>
+        <v>0.3360026804065731</v>
       </c>
       <c r="E8">
-        <v>0.2927910694860759</v>
+        <v>0.294120482404004</v>
       </c>
       <c r="F8">
-        <v>0.2558392836601719</v>
+        <v>0.2581452550694326</v>
       </c>
       <c r="G8">
-        <v>0.2238226070984604</v>
+        <v>0.2271622943092363</v>
       </c>
       <c r="H8">
-        <v>0.1960483716064657</v>
+        <v>0.2004097766164154</v>
       </c>
       <c r="I8">
-        <v>0.171925539176521</v>
+        <v>0.1772514956330936</v>
       </c>
       <c r="J8">
-        <v>0.1509491793396826</v>
+        <v>0.1571547430085155</v>
       </c>
       <c r="K8">
-        <v>0.1326874061222742</v>
+        <v>0.1396723130797741</v>
       </c>
       <c r="L8">
-        <v>0.1167703714466087</v>
+        <v>0.1244278226391004</v>
       </c>
       <c r="M8">
-        <v>0.1028809800096606</v>
+        <v>0.1111037030258783</v>
       </c>
       <c r="N8">
-        <v>0.09074704698909825</v>
+        <v>0.09943135226046637</v>
       </c>
       <c r="O8">
-        <v>0.08013466649000016</v>
+        <v>0.08918303780318403</v>
       </c>
       <c r="P8">
-        <v>0.07084259719378937</v>
+        <v>0.080165221845759</v>
       </c>
       <c r="Q8">
-        <v>0.06269750362225494</v>
+        <v>0.07221304551231084</v>
       </c>
       <c r="R8">
-        <v>0.05554991794499579</v>
+        <v>0.0651857595937225</v>
       </c>
       <c r="S8">
-        <v>0.04927080928944683</v>
+        <v>0.05896293028341838</v>
       </c>
       <c r="T8">
-        <v>0.04374866583912692</v>
+        <v>0.05344128102087096</v>
       </c>
       <c r="U8">
-        <v>0.03888701026874774</v>
+        <v>0.04853205769727815</v>
       </c>
       <c r="V8">
-        <v>0.03460228179132458</v>
+        <v>0.04415882547935544</v>
       </c>
       <c r="W8">
-        <v>0.03082202871628869</v>
+        <v>0.04025562241701893</v>
       </c>
       <c r="X8">
-        <v>0.02748336429642384</v>
+        <v>0.0367654086493822</v>
       </c>
       <c r="Y8">
-        <v>0.0245316460703468</v>
+        <v>0.03363876106641318</v>
       </c>
       <c r="Z8">
-        <v>0.0219193451300379</v>
+        <v>0.03083277223942249</v>
       </c>
       <c r="AA8">
-        <v>0.01960507696127683</v>
+        <v>0.02831011971366162</v>
       </c>
       <c r="AB8">
-        <v>0.01755276988575425</v>
+        <v>0.02603827768780285</v>
       </c>
       <c r="AC8">
-        <v>0.01573095081556626</v>
+        <v>0.02398884794867744</v>
       </c>
       <c r="AD8">
-        <v>0.01411213112866944</v>
+        <v>0.02213699089366768</v>
       </c>
       <c r="AE8">
-        <v>0.01267227808316275</v>
+        <v>0.02046094072439648</v>
       </c>
       <c r="AF8">
-        <v>0.01139035938839387</v>
+        <v>0.01894159156772683</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1202,94 +1202,94 @@
         <v>0.2300599835057191</v>
       </c>
       <c r="C9">
-        <v>0.2258272331623234</v>
+        <v>0.2258272331623233</v>
       </c>
       <c r="D9">
-        <v>0.22170940976412</v>
+        <v>0.2217547025341857</v>
       </c>
       <c r="E9">
-        <v>0.2177027262532369</v>
+        <v>0.2178348858510423</v>
       </c>
       <c r="F9">
-        <v>0.2138035401103213</v>
+        <v>0.2140606967775134</v>
       </c>
       <c r="G9">
-        <v>0.2100083471514968</v>
+        <v>0.2104254414710408</v>
       </c>
       <c r="H9">
-        <v>0.2063137756189428</v>
+        <v>0.2069227935779273</v>
       </c>
       <c r="I9">
-        <v>0.2027165805499734</v>
+        <v>0.2035467710140516</v>
       </c>
       <c r="J9">
-        <v>0.1992136384103307</v>
+        <v>0.200291714390031</v>
       </c>
       <c r="K9">
-        <v>0.1958019419782001</v>
+        <v>0.1971522669525809</v>
       </c>
       <c r="L9">
-        <v>0.1924785954661927</v>
+        <v>0.1941233559246945</v>
       </c>
       <c r="M9">
-        <v>0.1892408098692454</v>
+        <v>0.19120017513715</v>
       </c>
       <c r="N9">
-        <v>0.1860858985270402</v>
+        <v>0.1883781688528364</v>
       </c>
       <c r="O9">
-        <v>0.1830112728901689</v>
+        <v>0.1856530166935695</v>
       </c>
       <c r="P9">
-        <v>0.1800144384798502</v>
+        <v>0.1830206195865113</v>
       </c>
       <c r="Q9">
-        <v>0.1770929910315582</v>
+        <v>0.1804770866540953</v>
       </c>
       <c r="R9">
-        <v>0.1742446128134354</v>
+        <v>0.1780187229775402</v>
       </c>
       <c r="S9">
-        <v>0.1714670691108576</v>
+        <v>0.1756420181696835</v>
       </c>
       <c r="T9">
-        <v>0.1687582048689712</v>
+        <v>0.1733436356980148</v>
       </c>
       <c r="U9">
-        <v>0.1661159414854641</v>
+        <v>0.1711204029034975</v>
       </c>
       <c r="V9">
-        <v>0.1635382737462363</v>
+        <v>0.168969301665069</v>
       </c>
       <c r="W9">
-        <v>0.1610232668970241</v>
+        <v>0.1668874596636458</v>
       </c>
       <c r="X9">
-        <v>0.1585690538443977</v>
+        <v>0.16487214220306</v>
       </c>
       <c r="Y9">
-        <v>0.1561738324798917</v>
+        <v>0.1629207445486541</v>
       </c>
       <c r="Z9">
-        <v>0.1538358631213589</v>
+        <v>0.1610307847472814</v>
       </c>
       <c r="AA9">
-        <v>0.1515534660659381</v>
+        <v>0.1591998968952325</v>
       </c>
       <c r="AB9">
-        <v>0.1493250192493212</v>
+        <v>0.1574258248231484</v>
       </c>
       <c r="AC9">
-        <v>0.1471489560062751</v>
+        <v>0.1557064161693165</v>
       </c>
       <c r="AD9">
-        <v>0.1450237629276348</v>
+        <v>0.1540396168148886</v>
       </c>
       <c r="AE9">
-        <v>0.1429479778092263</v>
+        <v>0.1524234656565282</v>
       </c>
       <c r="AF9">
-        <v>0.1409201876884111</v>
+        <v>0.1508560896938093</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1297,97 +1297,97 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8090798252082538</v>
+        <v>0.8090798252082536</v>
       </c>
       <c r="C10">
-        <v>0.8352602500361948</v>
+        <v>0.8352602500361941</v>
       </c>
       <c r="D10">
-        <v>0.8620407216045538</v>
+        <v>0.8617387986402394</v>
       </c>
       <c r="E10">
-        <v>0.8894271780812115</v>
+        <v>0.8885019868642293</v>
       </c>
       <c r="F10">
-        <v>0.9174254142441445</v>
+        <v>0.9155361657180801</v>
       </c>
       <c r="G10">
-        <v>0.9460410773684733</v>
+        <v>0.942827548757905</v>
       </c>
       <c r="H10">
-        <v>0.9752796632267405</v>
+        <v>0.9703622389244714</v>
       </c>
       <c r="I10">
-        <v>1.005146512206049</v>
+        <v>0.9981262547758534</v>
       </c>
       <c r="J10">
-        <v>1.035646805545511</v>
+        <v>1.02610555605597</v>
       </c>
       <c r="K10">
-        <v>1.066785561697256</v>
+        <v>1.054286068546464</v>
       </c>
       <c r="L10">
-        <v>1.098567632814073</v>
+        <v>1.082653708155032</v>
       </c>
       <c r="M10">
-        <v>1.130997701366537</v>
+        <v>1.111194404198849</v>
       </c>
       <c r="N10">
-        <v>1.164080276892312</v>
+        <v>1.13989412184713</v>
       </c>
       <c r="O10">
-        <v>1.197819692880093</v>
+        <v>1.168738883692056</v>
       </c>
       <c r="P10">
-        <v>1.23222010379047</v>
+        <v>1.197714790422346</v>
       </c>
       <c r="Q10">
-        <v>1.267285482215792</v>
+        <v>1.226808040578578</v>
       </c>
       <c r="R10">
-        <v>1.303019616180916</v>
+        <v>1.256004949373958</v>
       </c>
       <c r="S10">
-        <v>1.339426106586519</v>
+        <v>1.285291966568637</v>
       </c>
       <c r="T10">
-        <v>1.376508364796472</v>
+        <v>1.314655693389837</v>
       </c>
       <c r="U10">
-        <v>1.414269610370551</v>
+        <v>1.344082898493965</v>
       </c>
       <c r="V10">
-        <v>1.452712868943604</v>
+        <v>1.373560532970559</v>
       </c>
       <c r="W10">
-        <v>1.49184097025205</v>
+        <v>1.403075744391381</v>
       </c>
       <c r="X10">
-        <v>1.531656546308461</v>
+        <v>1.43261588991114</v>
       </c>
       <c r="Y10">
-        <v>1.572162029724721</v>
+        <v>1.462168548429314</v>
       </c>
       <c r="Z10">
-        <v>1.613359652184113</v>
+        <v>1.491721531825233</v>
       </c>
       <c r="AA10">
-        <v>1.655251443062507</v>
+        <v>1.521262895281095</v>
       </c>
       <c r="AB10">
-        <v>1.697839228198599</v>
+        <v>1.550780946709836</v>
       </c>
       <c r="AC10">
-        <v>1.74112462881303</v>
+        <v>1.580264255306822</v>
       </c>
       <c r="AD10">
-        <v>1.785109060575993</v>
+        <v>1.609701659246139</v>
       </c>
       <c r="AE10">
-        <v>1.82979373282281</v>
+        <v>1.639082272543881</v>
       </c>
       <c r="AF10">
-        <v>1.875179647916751</v>
+        <v>1.668395491112251</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1395,97 +1395,97 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2973999644478772</v>
+        <v>0.2973999644478771</v>
       </c>
       <c r="C11">
         <v>0.2960223741642077</v>
       </c>
       <c r="D11">
-        <v>0.2946634775475886</v>
+        <v>0.2946785268732867</v>
       </c>
       <c r="E11">
-        <v>0.2933229651664814</v>
+        <v>0.2933674755471548</v>
       </c>
       <c r="F11">
-        <v>0.292000533789868</v>
+        <v>0.2920883045781402</v>
       </c>
       <c r="G11">
-        <v>0.2906958862415049</v>
+        <v>0.2908401285468348</v>
       </c>
       <c r="H11">
-        <v>0.289408731258076</v>
+        <v>0.2896220910458217</v>
       </c>
       <c r="I11">
-        <v>0.2881387833511259</v>
+        <v>0.2884333635563171</v>
       </c>
       <c r="J11">
-        <v>0.2868857626726646</v>
+        <v>0.2872731443750506</v>
       </c>
       <c r="K11">
-        <v>0.2856493948843314</v>
+        <v>0.2861406575888572</v>
       </c>
       <c r="L11">
-        <v>0.2844294110300163</v>
+        <v>0.2850351520945942</v>
       </c>
       <c r="M11">
-        <v>0.2832255474118336</v>
+        <v>0.2839559006621273</v>
       </c>
       <c r="N11">
-        <v>0.2820375454693527</v>
+        <v>0.2829021990382564</v>
       </c>
       <c r="O11">
-        <v>0.2808651516619882</v>
+        <v>0.2818733650895637</v>
       </c>
       <c r="P11">
-        <v>0.2797081173544589</v>
+        <v>0.2808687379822823</v>
       </c>
       <c r="Q11">
-        <v>0.2785661987052247</v>
+        <v>0.2798876773973804</v>
       </c>
       <c r="R11">
-        <v>0.277439156557817</v>
+        <v>0.2789295627791559</v>
       </c>
       <c r="S11">
-        <v>0.2763267563349774</v>
+        <v>0.2779937926157305</v>
       </c>
       <c r="T11">
-        <v>0.275228767935524</v>
+        <v>0.2770797837499099</v>
       </c>
       <c r="U11">
-        <v>0.2741449656338679</v>
+        <v>0.2761869707189684</v>
       </c>
       <c r="V11">
-        <v>0.2730751279821023</v>
+        <v>0.2753148051219826</v>
       </c>
       <c r="W11">
-        <v>0.272019037714592</v>
+        <v>0.2744627550134182</v>
       </c>
       <c r="X11">
-        <v>0.2709764816549921</v>
+        <v>0.2736303043217361</v>
       </c>
       <c r="Y11">
-        <v>0.2699472506256249</v>
+        <v>0.2728169522918526</v>
       </c>
       <c r="Z11">
-        <v>0.2689311393591515</v>
+        <v>0.2720222129503451</v>
       </c>
       <c r="AA11">
-        <v>0.26792794641247</v>
+        <v>0.2712456145923532</v>
       </c>
       <c r="AB11">
-        <v>0.2669374740827798</v>
+        <v>0.2704866992891797</v>
       </c>
       <c r="AC11">
-        <v>0.26595952832575</v>
+        <v>0.269745022415644</v>
       </c>
       <c r="AD11">
-        <v>0.2649939186757339</v>
+        <v>0.2690201521962916</v>
       </c>
       <c r="AE11">
-        <v>0.2640404581679714</v>
+        <v>0.268311669269605</v>
       </c>
       <c r="AF11">
-        <v>0.2630989632627249</v>
+        <v>0.2676191662694087</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1499,91 +1499,91 @@
         <v>0.1953978200294889</v>
       </c>
       <c r="D12">
-        <v>0.1889440099767359</v>
+        <v>0.1890144634586044</v>
       </c>
       <c r="E12">
-        <v>0.1827585995577722</v>
+        <v>0.1829611388965813</v>
       </c>
       <c r="F12">
-        <v>0.1768286423554156</v>
+        <v>0.1772170063113706</v>
       </c>
       <c r="G12">
-        <v>0.1711418926317659</v>
+        <v>0.1717627583540662</v>
       </c>
       <c r="H12">
-        <v>0.1656867636393661</v>
+        <v>0.1665804932379848</v>
       </c>
       <c r="I12">
-        <v>0.1604522886214629</v>
+        <v>0.1616535992619632</v>
       </c>
       <c r="J12">
-        <v>0.1554280843152188</v>
+        <v>0.1569666498168946</v>
       </c>
       <c r="K12">
-        <v>0.1506043167854491</v>
+        <v>0.1525053078391756</v>
       </c>
       <c r="L12">
-        <v>0.145971669429106</v>
+        <v>0.1482562387850835</v>
       </c>
       <c r="M12">
-        <v>0.1415213130024029</v>
+        <v>0.1442070312979137</v>
       </c>
       <c r="N12">
-        <v>0.1372448775332356</v>
+        <v>0.1403461248264636</v>
       </c>
       <c r="O12">
-        <v>0.1331344259914971</v>
+        <v>0.1366627435305078</v>
       </c>
       <c r="P12">
-        <v>0.1291824295990565</v>
+        <v>0.1331468358773895</v>
       </c>
       <c r="Q12">
-        <v>0.1253817446696519</v>
+        <v>0.1297890193947997</v>
       </c>
       <c r="R12">
-        <v>0.1217255908767771</v>
+        <v>0.126580530099081</v>
       </c>
       <c r="S12">
-        <v>0.1182075308548835</v>
+        <v>0.1235131761667771</v>
       </c>
       <c r="T12">
-        <v>0.1148214510459138</v>
+        <v>0.1205792954603156</v>
       </c>
       <c r="U12">
-        <v>0.1115615437093782</v>
+        <v>0.1177717165572644</v>
       </c>
       <c r="V12">
-        <v>0.1084222900199149</v>
+        <v>0.1150837229670643</v>
       </c>
       <c r="W12">
-        <v>0.1053984441815821</v>
+        <v>0.1125090202499738</v>
       </c>
       <c r="X12">
-        <v>0.1024850184930429</v>
+        <v>0.1100417057805726</v>
       </c>
       <c r="Y12">
-        <v>0.09967726930235536</v>
+        <v>0.1076762409229149</v>
       </c>
       <c r="Z12">
-        <v>0.09697068379429852</v>
+        <v>0.1054074254066238</v>
       </c>
       <c r="AA12">
-        <v>0.09436096755707379</v>
+        <v>0.103230373713146</v>
       </c>
       <c r="AB12">
-        <v>0.09184403287884869</v>
+        <v>0.1011404932992939</v>
       </c>
       <c r="AC12">
-        <v>0.08941598772797157</v>
+        <v>0.09913346450130549</v>
       </c>
       <c r="AD12">
-        <v>0.08707312537380807</v>
+        <v>0.0972052219771473</v>
       </c>
       <c r="AE12">
-        <v>0.08481191460804657</v>
+        <v>0.09535193755783984</v>
       </c>
       <c r="AF12">
-        <v>0.08262899052901036</v>
+        <v>0.09357000439035479</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1597,91 +1597,91 @@
         <v>0.3582738118342019</v>
       </c>
       <c r="D13">
-        <v>0.3010886970908945</v>
+        <v>0.301670416930555</v>
       </c>
       <c r="E13">
-        <v>0.2534273753603141</v>
+        <v>0.2548848541554014</v>
       </c>
       <c r="F13">
-        <v>0.2136417700988734</v>
+        <v>0.2160822579090677</v>
       </c>
       <c r="G13">
-        <v>0.1803791415048077</v>
+        <v>0.183792881850005</v>
       </c>
       <c r="H13">
-        <v>0.1525274333697627</v>
+        <v>0.1568353921457978</v>
       </c>
       <c r="I13">
-        <v>0.1291710393829149</v>
+        <v>0.1342570663182968</v>
       </c>
       <c r="J13">
-        <v>0.109554946550605</v>
+        <v>0.1152870085791537</v>
       </c>
       <c r="K13">
-        <v>0.09305562425963694</v>
+        <v>0.0992994226542651</v>
       </c>
       <c r="L13">
-        <v>0.07915735367613677</v>
+        <v>0.08578468272629818</v>
       </c>
       <c r="M13">
-        <v>0.06743295150351192</v>
+        <v>0.07432647128768037</v>
       </c>
       <c r="N13">
-        <v>0.05752804863872794</v>
+        <v>0.06458365282675277</v>
       </c>
       <c r="O13">
-        <v>0.04914824897705818</v>
+        <v>0.05627585645784026</v>
       </c>
       <c r="P13">
-        <v>0.04204862518581431</v>
+        <v>0.04917197264667764</v>
       </c>
       <c r="Q13">
-        <v>0.03602511352534112</v>
+        <v>0.04308094678218511</v>
       </c>
       <c r="R13">
-        <v>0.03090745413005403</v>
+        <v>0.03784438872545649</v>
       </c>
       <c r="S13">
-        <v>0.02655339083378117</v>
+        <v>0.03333062253345467</v>
       </c>
       <c r="T13">
-        <v>0.02284389900502441</v>
+        <v>0.02942988175591201</v>
       </c>
       <c r="U13">
-        <v>0.0196792536233376</v>
+        <v>0.02605041865693736</v>
       </c>
       <c r="V13">
-        <v>0.01697578510151336</v>
+        <v>0.02311534466893849</v>
       </c>
       <c r="W13">
-        <v>0.01466319882855735</v>
+        <v>0.02056005757297951</v>
       </c>
       <c r="X13">
-        <v>0.01268235742060038</v>
+        <v>0.0183301407743937</v>
       </c>
       <c r="Y13">
-        <v>0.01098344329379238</v>
+        <v>0.01637964348291729</v>
       </c>
       <c r="Z13">
-        <v>0.00952443427176935</v>
+        <v>0.01466966905147554</v>
       </c>
       <c r="AA13">
-        <v>0.008269837195941725</v>
+        <v>0.01316721328273153</v>
       </c>
       <c r="AB13">
-        <v>0.007189634468694517</v>
+        <v>0.0118442060298855</v>
       </c>
       <c r="AC13">
-        <v>0.006258406568066519</v>
+        <v>0.01067671855684938</v>
       </c>
       <c r="AD13">
-        <v>0.005454600181393908</v>
+        <v>0.00964430639360633</v>
       </c>
       <c r="AE13">
-        <v>0.004759916999367935</v>
+        <v>0.008729463222405778</v>
       </c>
       <c r="AF13">
-        <v>0.004158802620217955</v>
+        <v>0.007917165969018867</v>
       </c>
     </row>
   </sheetData>
